--- a/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.01104963203378267</v>
+        <v>0.01104963203378268</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.007700514997385522</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003352014859525304</v>
+        <v>0.003253176481676863</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002941940746254004</v>
+        <v>0.002935916780138805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004805577705801776</v>
+        <v>0.004129830373312912</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02965407161954364</v>
+        <v>0.02727888215564147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01721005822546381</v>
+        <v>0.01683527684467125</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0189438880770012</v>
+        <v>0.01722591530915375</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00680038680643831</v>
+        <v>0.007748158059732824</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0313012933057209</v>
+        <v>0.03236809036681951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02282164831489826</v>
+        <v>0.02316695311062333</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03084738683125395</v>
+        <v>0.03027388273606281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06192333461971251</v>
+        <v>0.06291006895994924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04437124569189375</v>
+        <v>0.04245708895177534</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.03355850635148078</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09463448517533915</v>
+        <v>0.09463448517533912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06593083828198787</v>
+        <v>0.06593083828198784</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01990516327069578</v>
+        <v>0.01973952504113067</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07245929931681548</v>
+        <v>0.07207711311140852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05170666210253987</v>
+        <v>0.05284458937062303</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05465464924248516</v>
+        <v>0.05640646917160546</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1187371149275627</v>
+        <v>0.1211166871812902</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08231170323340847</v>
+        <v>0.08424148647697165</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02725791554351135</v>
+        <v>0.02725791554351134</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05562753973729644</v>
+        <v>0.05562753973729645</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04231361505144375</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01487543074998211</v>
+        <v>0.01424294443594358</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04044553866966857</v>
+        <v>0.04027943818206385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03175676860064019</v>
+        <v>0.03134135192645247</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05387953048324347</v>
+        <v>0.05366916756736444</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07480155013353268</v>
+        <v>0.07533360830549127</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05769180608546243</v>
+        <v>0.05642976907021924</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.02063547303638626</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03423839342984492</v>
+        <v>0.03423839342984491</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.02777552938941522</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008880058355426098</v>
+        <v>0.008864792636054063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02190894591742723</v>
+        <v>0.02100564902141408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01860202692624679</v>
+        <v>0.01859563170959686</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04268812583091423</v>
+        <v>0.04143349562166184</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05128784187259045</v>
+        <v>0.05185172812958942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04192329334022408</v>
+        <v>0.04101818858816931</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.03010165652888809</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05511703488043248</v>
+        <v>0.05511703488043246</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.04244654114040428</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01556036794864181</v>
+        <v>0.01509305551120041</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03685979419361907</v>
+        <v>0.0366194552792399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02891620478556627</v>
+        <v>0.03014585408064796</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05661663271870277</v>
+        <v>0.05675729800430921</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08222929165460946</v>
+        <v>0.08419776480541409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05969293365616277</v>
+        <v>0.06017977685746227</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.09126990886159221</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.06717688606740245</v>
+        <v>0.06717688606740246</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02662239220392375</v>
+        <v>0.02704489732847833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07488440508010541</v>
+        <v>0.0739485755295838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05668781571739324</v>
+        <v>0.05632230482338011</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06137905029830818</v>
+        <v>0.06300754691195865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1150360091421104</v>
+        <v>0.1122366964317778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08320341611916224</v>
+        <v>0.08146315441059862</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.008267073322785951</v>
+        <v>0.008267073322785952</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.02026058663680531</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.003639800538736559</v>
+        <v>0.003647351825579307</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0132319777928434</v>
+        <v>0.01373082149249984</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009921124421903248</v>
+        <v>0.009865511329376046</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01697795962483278</v>
+        <v>0.01595591692695282</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0298615967720711</v>
+        <v>0.02992959478376923</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02126415442975772</v>
+        <v>0.02043601349385166</v>
       </c>
     </row>
     <row r="28">
@@ -1007,10 +1007,10 @@
         <v>0.02319484778518329</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3051</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9455</v>
+        <v>8698</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5439</v>
+        <v>5321</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12028</v>
+        <v>10937</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3609</v>
+        <v>4112</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17066</v>
+        <v>17648</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24553</v>
+        <v>24924</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16369</v>
+        <v>16065</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33761</v>
+        <v>34299</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47737</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6290</v>
+        <v>6238</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25823</v>
+        <v>25687</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34766</v>
+        <v>35531</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17270</v>
+        <v>17824</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42316</v>
+        <v>43164</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55344</v>
+        <v>56642</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5551</v>
+        <v>5315</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17066</v>
+        <v>16996</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25250</v>
+        <v>24920</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20105</v>
+        <v>20026</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31563</v>
+        <v>31788</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45871</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4978</v>
+        <v>4773</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8052</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8779</v>
+        <v>8521</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11653</v>
+        <v>11781</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18148</v>
+        <v>17756</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4212</v>
+        <v>4086</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9722</v>
+        <v>9658</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15454</v>
+        <v>16112</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15327</v>
+        <v>15365</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21688</v>
+        <v>22207</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31903</v>
+        <v>32164</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19160</v>
+        <v>19464</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>57815</v>
+        <v>57093</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>84564</v>
+        <v>84018</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44174</v>
+        <v>45346</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>88814</v>
+        <v>86653</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>124118</v>
+        <v>121522</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11000</v>
+        <v>11415</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>16166</v>
+        <v>16075</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>13550</v>
+        <v>12734</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>24825</v>
+        <v>24881</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>34648</v>
+        <v>33299</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
     </row>
     <row r="40">
